--- a/analysis/analysis/mobile_typing_data_clean.xlsx
+++ b/analysis/analysis/mobile_typing_data_clean.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,7 +1078,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P08</t>
+          <t>P07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1087,31 +1087,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>72.63</v>
+        <v>287.5</v>
       </c>
       <c r="E20" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>60.002</v>
+        <v>60.003</v>
       </c>
       <c r="G20" t="n">
-        <v>1.253246753246753</v>
+        <v>0.3739130434782609</v>
       </c>
       <c r="H20" t="n">
-        <v>3.896103896103896</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P08</t>
+          <t>P07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1120,31 +1120,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>75.54000000000001</v>
+        <v>84.44</v>
       </c>
       <c r="E21" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F21" t="n">
         <v>60.004</v>
       </c>
       <c r="G21" t="n">
-        <v>1.156626506024096</v>
+        <v>1.208588957055215</v>
       </c>
       <c r="H21" t="n">
-        <v>1.80722891566265</v>
+        <v>2.45398773006135</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P08</t>
+          <t>P07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1153,31 +1153,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>49.12</v>
+        <v>420.51</v>
       </c>
       <c r="E22" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>60.003</v>
+        <v>60.005</v>
       </c>
       <c r="G22" t="n">
-        <v>1.11377245508982</v>
+        <v>0.2559523809523809</v>
       </c>
       <c r="H22" t="n">
-        <v>7.784431137724551</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1186,31 +1186,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>86.52</v>
+        <v>72.63</v>
       </c>
       <c r="E23" t="n">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="F23" t="n">
-        <v>60.005</v>
+        <v>60.002</v>
       </c>
       <c r="G23" t="n">
-        <v>1.057803468208093</v>
+        <v>1.253246753246753</v>
       </c>
       <c r="H23" t="n">
-        <v>8.092485549132949</v>
+        <v>3.896103896103896</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P08</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1219,31 +1219,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>98.56</v>
+        <v>75.54000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F24" t="n">
-        <v>60.006</v>
+        <v>60.004</v>
       </c>
       <c r="G24" t="n">
-        <v>1.024271844660194</v>
+        <v>1.156626506024096</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4854368932038834</v>
+        <v>1.80722891566265</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9999999999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1252,31 +1252,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
-        <v>85.95999999999999</v>
+        <v>49.12</v>
       </c>
       <c r="E25" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F25" t="n">
-        <v>60.002</v>
+        <v>60.003</v>
       </c>
       <c r="G25" t="n">
-        <v>1.07185628742515</v>
+        <v>1.11377245508982</v>
       </c>
       <c r="H25" t="n">
-        <v>4.790419161676647</v>
+        <v>7.784431137724551</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D26" t="n">
-        <v>77.02</v>
+        <v>97.51000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F26" t="n">
-        <v>60.001</v>
+        <v>60.024</v>
       </c>
       <c r="G26" t="n">
-        <v>1.323529411764706</v>
+        <v>1.147959183673469</v>
       </c>
       <c r="H26" t="n">
-        <v>1.470588235294118</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1318,31 +1318,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>74.61</v>
+        <v>182.86</v>
       </c>
       <c r="E27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" t="n">
-        <v>60.002</v>
+        <v>60.025</v>
       </c>
       <c r="G27" t="n">
-        <v>1.300613496932515</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="H27" t="n">
-        <v>1.840490797546012</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1351,31 +1351,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D28" t="n">
-        <v>83.05</v>
+        <v>81.5</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="F28" t="n">
-        <v>60.01</v>
+        <v>60.007</v>
       </c>
       <c r="G28" t="n">
-        <v>1.297297297297297</v>
+        <v>1.09717868338558</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6756756756756757</v>
+        <v>2.19435736677116</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9999999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1384,31 +1384,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
-        <v>91.51000000000001</v>
+        <v>86.52</v>
       </c>
       <c r="E29" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="F29" t="n">
-        <v>60.06</v>
+        <v>60.005</v>
       </c>
       <c r="G29" t="n">
-        <v>1.158974358974359</v>
+        <v>1.057803468208093</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5128205128205128</v>
+        <v>8.092485549132949</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9999999999999998</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1420,28 +1420,28 @@
         <v>42</v>
       </c>
       <c r="D30" t="n">
-        <v>79.42</v>
+        <v>98.56</v>
       </c>
       <c r="E30" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F30" t="n">
-        <v>60.062</v>
+        <v>60.006</v>
       </c>
       <c r="G30" t="n">
-        <v>1.18552036199095</v>
+        <v>1.024271844660194</v>
       </c>
       <c r="H30" t="n">
-        <v>2.262443438914027</v>
+        <v>0.4854368932038834</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1450,31 +1450,31 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
-        <v>77.86</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F31" t="n">
-        <v>60.087</v>
+        <v>60.002</v>
       </c>
       <c r="G31" t="n">
-        <v>1.188841201716738</v>
+        <v>1.07185628742515</v>
       </c>
       <c r="H31" t="n">
-        <v>1.716738197424893</v>
+        <v>4.790419161676647</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1483,31 +1483,31 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
-        <v>89.92</v>
+        <v>77.02</v>
       </c>
       <c r="E32" t="n">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="F32" t="n">
-        <v>60.069</v>
+        <v>60.001</v>
       </c>
       <c r="G32" t="n">
-        <v>1.015625</v>
+        <v>1.323529411764706</v>
       </c>
       <c r="H32" t="n">
-        <v>3.90625</v>
+        <v>1.470588235294118</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1516,31 +1516,31 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>93.11</v>
+        <v>74.61</v>
       </c>
       <c r="E33" t="n">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="F33" t="n">
-        <v>60.067</v>
+        <v>60.002</v>
       </c>
       <c r="G33" t="n">
-        <v>1.036585365853659</v>
+        <v>1.300613496932515</v>
       </c>
       <c r="H33" t="n">
-        <v>2.134146341463415</v>
+        <v>1.840490797546012</v>
       </c>
       <c r="I33" t="n">
-        <v>7.000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1549,31 +1549,31 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>82.33</v>
+        <v>83.05</v>
       </c>
       <c r="E34" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F34" t="n">
-        <v>60.065</v>
+        <v>60.01</v>
       </c>
       <c r="G34" t="n">
-        <v>1.063380281690141</v>
+        <v>1.297297297297297</v>
       </c>
       <c r="H34" t="n">
-        <v>3.169014084507042</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="I34" t="n">
-        <v>9</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>94.44</v>
+        <v>91.51000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F35" t="n">
-        <v>60.001</v>
+        <v>60.06</v>
       </c>
       <c r="G35" t="n">
-        <v>1.064171122994652</v>
+        <v>1.158974358974359</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1615,31 +1615,31 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D36" t="n">
-        <v>89.04000000000001</v>
+        <v>79.42</v>
       </c>
       <c r="E36" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="F36" t="n">
-        <v>60.003</v>
+        <v>60.062</v>
       </c>
       <c r="G36" t="n">
-        <v>1.147058823529412</v>
+        <v>1.18552036199095</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4901960784313725</v>
+        <v>2.262443438914027</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1648,31 +1648,31 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D37" t="n">
-        <v>86.73</v>
+        <v>77.86</v>
       </c>
       <c r="E37" t="n">
+        <v>70</v>
+      </c>
+      <c r="F37" t="n">
+        <v>60.087</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.188841201716738</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.716738197424893</v>
+      </c>
+      <c r="I37" t="n">
         <v>4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>60.002</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.182352941176471</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1681,31 +1681,31 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D38" t="n">
+        <v>89.92</v>
+      </c>
+      <c r="E38" t="n">
         <v>91</v>
       </c>
-      <c r="E38" t="n">
-        <v>71</v>
-      </c>
       <c r="F38" t="n">
-        <v>60.627</v>
+        <v>60.069</v>
       </c>
       <c r="G38" t="n">
-        <v>1.024154589371981</v>
+        <v>1.015625</v>
       </c>
       <c r="H38" t="n">
-        <v>2.898550724637681</v>
+        <v>3.90625</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1714,31 +1714,31 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D39" t="n">
-        <v>99.16</v>
+        <v>93.11</v>
       </c>
       <c r="E39" t="n">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="F39" t="n">
-        <v>60.849</v>
+        <v>60.067</v>
       </c>
       <c r="G39" t="n">
-        <v>1.008403361344538</v>
+        <v>1.036585365853659</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4201680672268908</v>
+        <v>2.134146341463415</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>7.000000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D40" t="n">
-        <v>87.5</v>
+        <v>82.33</v>
       </c>
       <c r="E40" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F40" t="n">
-        <v>60.957</v>
+        <v>60.065</v>
       </c>
       <c r="G40" t="n">
-        <v>1.193717277486911</v>
+        <v>1.063380281690141</v>
       </c>
       <c r="H40" t="n">
-        <v>1.047120418848168</v>
+        <v>3.169014084507042</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D41" t="n">
-        <v>45.95</v>
+        <v>94.44</v>
       </c>
       <c r="E41" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>60.004</v>
+        <v>60.001</v>
       </c>
       <c r="G41" t="n">
-        <v>1.222222222222222</v>
+        <v>1.064171122994652</v>
       </c>
       <c r="H41" t="n">
-        <v>3.174603174603174</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1813,31 +1813,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D42" t="n">
-        <v>86.90000000000001</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>60.013</v>
+        <v>60.003</v>
       </c>
       <c r="G42" t="n">
+        <v>1.147058823529412</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2.702702702702703</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1846,31 +1846,31 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D43" t="n">
-        <v>62.5</v>
+        <v>86.73</v>
       </c>
       <c r="E43" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
-        <v>60.009</v>
+        <v>60.002</v>
       </c>
       <c r="G43" t="n">
-        <v>1.229885057471264</v>
+        <v>1.182352941176471</v>
       </c>
       <c r="H43" t="n">
-        <v>3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1879,31 +1879,31 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D44" t="n">
-        <v>85.05</v>
+        <v>91</v>
       </c>
       <c r="E44" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F44" t="n">
-        <v>60.084</v>
+        <v>60.627</v>
       </c>
       <c r="G44" t="n">
-        <v>1.03030303030303</v>
+        <v>1.024154589371981</v>
       </c>
       <c r="H44" t="n">
-        <v>5.05050505050505</v>
+        <v>2.898550724637681</v>
       </c>
       <c r="I44" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1912,22 +1912,22 @@
         </is>
       </c>
       <c r="C45" t="n">
+        <v>47</v>
+      </c>
+      <c r="D45" t="n">
+        <v>99.16</v>
+      </c>
+      <c r="E45" t="n">
         <v>38</v>
       </c>
-      <c r="D45" t="n">
-        <v>77.88</v>
-      </c>
-      <c r="E45" t="n">
-        <v>54</v>
-      </c>
       <c r="F45" t="n">
-        <v>60.062</v>
+        <v>60.849</v>
       </c>
       <c r="G45" t="n">
-        <v>1.3954802259887</v>
+        <v>1.008403361344538</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5649717514124294</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -1936,7 +1936,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1948,28 +1948,28 @@
         <v>40</v>
       </c>
       <c r="D46" t="n">
-        <v>79.84</v>
+        <v>87.5</v>
       </c>
       <c r="E46" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="F46" t="n">
-        <v>60.073</v>
+        <v>60.957</v>
       </c>
       <c r="G46" t="n">
-        <v>1.099173553719008</v>
+        <v>1.193717277486911</v>
       </c>
       <c r="H46" t="n">
-        <v>5.371900826446281</v>
+        <v>1.047120418848168</v>
       </c>
       <c r="I46" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1978,31 +1978,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>86.56999999999999</v>
+        <v>45.95</v>
       </c>
       <c r="E47" t="n">
+        <v>40</v>
+      </c>
+      <c r="F47" t="n">
+        <v>60.004</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.222222222222222</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.174603174603174</v>
+      </c>
+      <c r="I47" t="n">
         <v>2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>60.003</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.172413793103448</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2011,31 +2011,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D48" t="n">
-        <v>98.97</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F48" t="n">
-        <v>60.003</v>
+        <v>60.013</v>
       </c>
       <c r="G48" t="n">
-        <v>1.03125</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2044,31 +2044,31 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="n">
-        <v>72.59999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="E49" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F49" t="n">
-        <v>60.002</v>
+        <v>60.009</v>
       </c>
       <c r="G49" t="n">
-        <v>1.027777777777778</v>
+        <v>1.229885057471264</v>
       </c>
       <c r="H49" t="n">
-        <v>2.777777777777778</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2077,31 +2077,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
-        <v>32.38</v>
+        <v>85.05</v>
       </c>
       <c r="E50" t="n">
         <v>73</v>
       </c>
       <c r="F50" t="n">
-        <v>60.003</v>
+        <v>60.084</v>
       </c>
       <c r="G50" t="n">
-        <v>1.345679012345679</v>
+        <v>1.03030303030303</v>
       </c>
       <c r="H50" t="n">
-        <v>38.2716049382716</v>
+        <v>5.05050505050505</v>
       </c>
       <c r="I50" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2110,31 +2110,31 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D51" t="n">
-        <v>80.12</v>
+        <v>77.88</v>
       </c>
       <c r="E51" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F51" t="n">
-        <v>60.003</v>
+        <v>60.062</v>
       </c>
       <c r="G51" t="n">
-        <v>1.037974683544304</v>
+        <v>1.3954802259887</v>
       </c>
       <c r="H51" t="n">
-        <v>7.59493670886076</v>
+        <v>0.5649717514124294</v>
       </c>
       <c r="I51" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2143,31 +2143,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D52" t="n">
-        <v>61.83</v>
+        <v>79.84</v>
       </c>
       <c r="E52" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F52" t="n">
-        <v>60.002</v>
+        <v>60.073</v>
       </c>
       <c r="G52" t="n">
-        <v>1.526881720430108</v>
+        <v>1.099173553719008</v>
       </c>
       <c r="H52" t="n">
-        <v>3.225806451612903</v>
+        <v>5.371900826446281</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2176,31 +2176,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>93.42</v>
+        <v>86.56999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>60.046</v>
+        <v>60.003</v>
       </c>
       <c r="G53" t="n">
-        <v>1.068493150684932</v>
+        <v>1.172413793103448</v>
       </c>
       <c r="H53" t="n">
-        <v>2.73972602739726</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2209,31 +2209,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D54" t="n">
-        <v>79.11</v>
+        <v>98.97</v>
       </c>
       <c r="E54" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>60.022</v>
+        <v>60.003</v>
       </c>
       <c r="G54" t="n">
-        <v>1.168918918918919</v>
+        <v>1.03125</v>
       </c>
       <c r="H54" t="n">
-        <v>13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2242,31 +2242,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>55.81</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="F55" t="n">
-        <v>60.058</v>
+        <v>60.002</v>
       </c>
       <c r="G55" t="n">
-        <v>1.182389937106918</v>
+        <v>1.027777777777778</v>
       </c>
       <c r="H55" t="n">
-        <v>16.9811320754717</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I55" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2275,31 +2275,31 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D56" t="n">
-        <v>49.33</v>
+        <v>382.98</v>
       </c>
       <c r="E56" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>60.055</v>
+        <v>60.04</v>
       </c>
       <c r="G56" t="n">
-        <v>1.365217391304348</v>
+        <v>0.3093922651933702</v>
       </c>
       <c r="H56" t="n">
-        <v>13.91304347826087</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="I56" t="n">
-        <v>16</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2308,31 +2308,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D57" t="n">
-        <v>90.40000000000001</v>
+        <v>432.5</v>
       </c>
       <c r="E57" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>60.055</v>
+        <v>60.057</v>
       </c>
       <c r="G57" t="n">
-        <v>1.017045454545455</v>
+        <v>0.3699421965317919</v>
       </c>
       <c r="H57" t="n">
-        <v>1.704545454545454</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2341,31 +2341,31 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D58" t="n">
-        <v>91.58</v>
+        <v>345.83</v>
       </c>
       <c r="E58" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F58" t="n">
-        <v>60.073</v>
+        <v>60.046</v>
       </c>
       <c r="G58" t="n">
-        <v>1.081521739130435</v>
+        <v>0.3588235294117647</v>
       </c>
       <c r="H58" t="n">
-        <v>1.08695652173913</v>
+        <v>2.352941176470588</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D59" t="n">
-        <v>53.88</v>
+        <v>32.38</v>
       </c>
       <c r="E59" t="n">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="F59" t="n">
-        <v>60.008</v>
+        <v>60.003</v>
       </c>
       <c r="G59" t="n">
-        <v>1.118721461187215</v>
+        <v>1.345679012345679</v>
       </c>
       <c r="H59" t="n">
-        <v>3.19634703196347</v>
+        <v>38.2716049382716</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2407,57 +2407,453 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D60" t="n">
-        <v>76.48999999999999</v>
+        <v>80.12</v>
       </c>
       <c r="E60" t="n">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="F60" t="n">
         <v>60.003</v>
       </c>
       <c r="G60" t="n">
-        <v>1.16</v>
+        <v>1.037974683544304</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>7.59493670886076</v>
       </c>
       <c r="I60" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>P20</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>18</v>
+      </c>
+      <c r="D61" t="n">
+        <v>61.83</v>
+      </c>
+      <c r="E61" t="n">
+        <v>60</v>
+      </c>
+      <c r="F61" t="n">
+        <v>60.002</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.526881720430108</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>upstairs</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>30</v>
+      </c>
+      <c r="D62" t="n">
+        <v>93.42</v>
+      </c>
+      <c r="E62" t="n">
+        <v>43</v>
+      </c>
+      <c r="F62" t="n">
+        <v>60.046</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.068493150684932</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.73972602739726</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>stationary</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>25</v>
+      </c>
+      <c r="D63" t="n">
+        <v>79.11</v>
+      </c>
+      <c r="E63" t="n">
+        <v>59</v>
+      </c>
+      <c r="F63" t="n">
+        <v>60.022</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.168918918918919</v>
+      </c>
+      <c r="H63" t="n">
+        <v>13.51351351351351</v>
+      </c>
+      <c r="I63" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>P21</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>20</v>
+      </c>
+      <c r="D64" t="n">
+        <v>55.81</v>
+      </c>
+      <c r="E64" t="n">
+        <v>111</v>
+      </c>
+      <c r="F64" t="n">
+        <v>60.058</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.182389937106918</v>
+      </c>
+      <c r="H64" t="n">
+        <v>16.9811320754717</v>
+      </c>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>upstairs</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>18</v>
+      </c>
+      <c r="D65" t="n">
+        <v>49.33</v>
+      </c>
+      <c r="E65" t="n">
+        <v>84</v>
+      </c>
+      <c r="F65" t="n">
+        <v>60.055</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.365217391304348</v>
+      </c>
+      <c r="H65" t="n">
+        <v>13.91304347826087</v>
+      </c>
+      <c r="I65" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>stationary</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>32</v>
+      </c>
+      <c r="D66" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E66" t="n">
+        <v>33</v>
+      </c>
+      <c r="F66" t="n">
+        <v>60.055</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.017045454545455</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.704545454545454</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>P22</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>35</v>
+      </c>
+      <c r="D67" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="E67" t="n">
+        <v>19</v>
+      </c>
+      <c r="F67" t="n">
+        <v>60.073</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.081521739130435</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.08695652173913</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>upstairs</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>34</v>
+      </c>
+      <c r="D68" t="n">
+        <v>273.77</v>
+      </c>
+      <c r="E68" t="n">
+        <v>21</v>
+      </c>
+      <c r="F68" t="n">
+        <v>60.002</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.4508670520231214</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.468208092485549</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.999999999999999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>stationary</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>37</v>
+      </c>
+      <c r="D69" t="n">
+        <v>447.37</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12</v>
+      </c>
+      <c r="F69" t="n">
+        <v>60.002</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.2303370786516854</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.247191011235955</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4.000000000000001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>P23</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>stationary</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>29</v>
+      </c>
+      <c r="D70" t="n">
+        <v>346.34</v>
+      </c>
+      <c r="E70" t="n">
+        <v>22</v>
+      </c>
+      <c r="F70" t="n">
+        <v>60.002</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.3354430379746836</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.531645569620253</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4.000000000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>P24</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>upstairs</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>25</v>
+      </c>
+      <c r="D71" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="E71" t="n">
+        <v>115</v>
+      </c>
+      <c r="F71" t="n">
+        <v>60.008</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.118721461187215</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.19634703196347</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>stationary</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>41</v>
+      </c>
+      <c r="D72" t="n">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>86</v>
+      </c>
+      <c r="F72" t="n">
+        <v>60.003</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>P24</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>walking</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="C73" t="n">
         <v>33</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D73" t="n">
         <v>64.03</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E73" t="n">
         <v>93</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F73" t="n">
         <v>60.001</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G73" t="n">
         <v>1.222222222222222</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H73" t="n">
         <v>3.111111111111111</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I73" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2544,34 +2940,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.05</v>
+        <v>35.76</v>
       </c>
       <c r="C2" t="n">
-        <v>11.45000574580412</v>
+        <v>10.36934584886305</v>
       </c>
       <c r="D2" t="n">
-        <v>85.699</v>
+        <v>128.2996</v>
       </c>
       <c r="E2" t="n">
-        <v>8.61618971838236</v>
+        <v>108.8754409665773</v>
       </c>
       <c r="F2" t="n">
-        <v>1.122582355195382</v>
+        <v>1.007511804352595</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1041324938883572</v>
+        <v>0.2990430817283809</v>
       </c>
       <c r="H2" t="n">
-        <v>2.265434847028142</v>
+        <v>2.18329350312044</v>
       </c>
       <c r="I2" t="n">
-        <v>3.150652394003103</v>
+        <v>2.841114227885086</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>3.92</v>
       </c>
       <c r="K2" t="n">
-        <v>4.919349550499537</v>
+        <v>4.452714527865745</v>
       </c>
     </row>
     <row r="3">
@@ -2581,34 +2977,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.45</v>
+        <v>28.75</v>
       </c>
       <c r="C3" t="n">
-        <v>11.86979802958576</v>
+        <v>11.41033094059559</v>
       </c>
       <c r="D3" t="n">
-        <v>73.92150000000001</v>
+        <v>105.0079166666667</v>
       </c>
       <c r="E3" t="n">
-        <v>19.56795023958686</v>
+        <v>84.88129665337335</v>
       </c>
       <c r="F3" t="n">
-        <v>1.208999528496405</v>
+        <v>1.102588421429013</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2547907517332541</v>
+        <v>0.3639661886147322</v>
       </c>
       <c r="H3" t="n">
-        <v>5.616242369545142</v>
+        <v>4.84773090296807</v>
       </c>
       <c r="I3" t="n">
-        <v>8.456153307787909</v>
+        <v>7.906490025892211</v>
       </c>
       <c r="J3" t="n">
-        <v>7.15</v>
+        <v>6.25</v>
       </c>
       <c r="K3" t="n">
-        <v>7.828927465697834</v>
+        <v>7.478955983872058</v>
       </c>
     </row>
     <row r="4">
@@ -2618,34 +3014,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.25</v>
+        <v>34.17391304347826</v>
       </c>
       <c r="C4" t="n">
-        <v>13.76828927186251</v>
+        <v>14.3198913591392</v>
       </c>
       <c r="D4" t="n">
-        <v>75.5635</v>
+        <v>102.57</v>
       </c>
       <c r="E4" t="n">
-        <v>14.38166093731143</v>
+        <v>90.25772397065879</v>
       </c>
       <c r="F4" t="n">
-        <v>1.205932551943504</v>
+        <v>1.123069810113904</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2176387895809167</v>
+        <v>0.3284900894804388</v>
       </c>
       <c r="H4" t="n">
-        <v>3.484591100767359</v>
+        <v>3.331307519110492</v>
       </c>
       <c r="I4" t="n">
-        <v>3.780557867353372</v>
+        <v>3.536708063271368</v>
       </c>
       <c r="J4" t="n">
-        <v>5.9</v>
+        <v>5.782608695652174</v>
       </c>
       <c r="K4" t="n">
-        <v>6.463663618136471</v>
+        <v>6.037432640235044</v>
       </c>
     </row>
   </sheetData>
